--- a/INFO_COUNTRIES.xlsx
+++ b/INFO_COUNTRIES.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usr001\Desktop\1Streamlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D9F5F49-90A5-4040-8827-B552202008DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE218446-1AB2-4D1C-A2EE-DFCE9D9E0518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="2160" windowWidth="20625" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -41,15 +41,6 @@
     <t>Area (sq. km)</t>
   </si>
   <si>
-    <t>Population'21</t>
-  </si>
-  <si>
-    <t>Inflation Rate'22</t>
-  </si>
-  <si>
-    <t>GDP'21</t>
-  </si>
-  <si>
     <t>Australia</t>
   </si>
   <si>
@@ -84,6 +75,15 @@
   </si>
   <si>
     <t>69734 USD</t>
+  </si>
+  <si>
+    <t>Population</t>
+  </si>
+  <si>
+    <t>GDP per capita</t>
+  </si>
+  <si>
+    <t>Inflation Rate (%)</t>
   </si>
 </sst>
 </file>
@@ -142,19 +142,19 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -439,8 +439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E7"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,7 +449,7 @@
     <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -460,18 +460,18 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3">
         <v>7688287</v>
@@ -484,12 +484,12 @@
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B3" s="3">
         <v>83883</v>
@@ -502,12 +502,12 @@
         <v>5.4199999999999998E-2</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B4" s="3">
         <v>8358140</v>
@@ -520,12 +520,12 @@
         <v>0.10460000000000001</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B5" s="3">
         <v>357022</v>
@@ -538,12 +538,12 @@
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B6" s="3">
         <v>17125191</v>
@@ -556,12 +556,12 @@
         <v>8.9499999999999996E-2</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B7" s="3">
         <v>9147590</v>
@@ -574,7 +574,7 @@
         <v>7.9600000000000004E-2</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
